--- a/team_specific_matrix/Seattle U_B.xlsx
+++ b/team_specific_matrix/Seattle U_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2033195020746888</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="C2">
-        <v>0.5186721991701245</v>
+        <v>0.4966887417218543</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01244813278008299</v>
+        <v>0.009933774834437087</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1784232365145228</v>
+        <v>0.1821192052980132</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08713692946058091</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01503759398496241</v>
+        <v>0.0125</v>
       </c>
       <c r="C3">
-        <v>0.02255639097744361</v>
+        <v>0.01875</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03007518796992481</v>
+        <v>0.025</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.725</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2180451127819549</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.53125</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4375</v>
+        <v>0.4318181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06565656565656566</v>
+        <v>0.06204379562043796</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01515151515151515</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04545454545454546</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2323232323232323</v>
+        <v>0.2883211678832117</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02525252525252525</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1616161616161616</v>
+        <v>0.1423357664233577</v>
       </c>
       <c r="R6">
-        <v>0.0707070707070707</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="S6">
-        <v>0.3838383838383838</v>
+        <v>0.3613138686131387</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1707317073170732</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01219512195121951</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06097560975609756</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1707317073170732</v>
+        <v>0.1407766990291262</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0426829268292683</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.08536585365853659</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="R7">
-        <v>0.05487804878048781</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="S7">
-        <v>0.4024390243902439</v>
+        <v>0.4174757281553398</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08635097493036212</v>
+        <v>0.09070796460176991</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01671309192200557</v>
+        <v>0.01991150442477876</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04456824512534819</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1309192200557103</v>
+        <v>0.1305309734513274</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04456824512534819</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1476323119777159</v>
+        <v>0.1349557522123894</v>
       </c>
       <c r="R8">
-        <v>0.06685236768802229</v>
+        <v>0.06415929203539823</v>
       </c>
       <c r="S8">
-        <v>0.4623955431754875</v>
+        <v>0.4623893805309734</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1040462427745665</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02312138728323699</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="E9">
-        <v>0.005780346820809248</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F9">
-        <v>0.06358381502890173</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1213872832369942</v>
+        <v>0.1184834123222749</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04046242774566474</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.161849710982659</v>
+        <v>0.1421800947867299</v>
       </c>
       <c r="R9">
-        <v>0.09248554913294797</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="S9">
-        <v>0.3872832369942196</v>
+        <v>0.3933649289099526</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1319681456200228</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02161547212741752</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="E10">
-        <v>0.001137656427758817</v>
+        <v>0.0008741258741258741</v>
       </c>
       <c r="F10">
-        <v>0.08987485779294653</v>
+        <v>0.08916083916083917</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09783845278725825</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03412969283276451</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1968145620022753</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="R10">
-        <v>0.05233219567690557</v>
+        <v>0.0472027972027972</v>
       </c>
       <c r="S10">
-        <v>0.3742889647326507</v>
+        <v>0.3828671328671329</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1739130434782609</v>
+        <v>0.1712328767123288</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09130434782608696</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="K11">
-        <v>0.1956521739130435</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L11">
-        <v>0.5260869565217391</v>
+        <v>0.5273972602739726</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01304347826086956</v>
+        <v>0.02054794520547945</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6728395061728395</v>
+        <v>0.6778846153846154</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.154320987654321</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="K12">
-        <v>0.01851851851851852</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="L12">
-        <v>0.07407407407407407</v>
+        <v>0.0625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08024691358024691</v>
+        <v>0.08173076923076923</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02631578947368421</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.6842105263157895</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.131578947368421</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1578947368421053</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.045</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.165</v>
+        <v>0.1725490196078431</v>
       </c>
       <c r="I15">
-        <v>0.055</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.275</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="K15">
-        <v>0.08</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01</v>
+        <v>0.007843137254901961</v>
       </c>
       <c r="N15">
-        <v>0.005</v>
+        <v>0.00392156862745098</v>
       </c>
       <c r="O15">
-        <v>0.055</v>
+        <v>0.05098039215686274</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.31</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03289473684210526</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1973684210526316</v>
+        <v>0.2052631578947368</v>
       </c>
       <c r="I16">
-        <v>0.08552631578947369</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J16">
-        <v>0.3355263157894737</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K16">
-        <v>0.1381578947368421</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0131578947368421</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="O16">
-        <v>0.04605263157894737</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1513157894736842</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01346801346801347</v>
+        <v>0.02425876010781671</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1616161616161616</v>
+        <v>0.1482479784366577</v>
       </c>
       <c r="I17">
-        <v>0.09090909090909091</v>
+        <v>0.08894878706199461</v>
       </c>
       <c r="J17">
-        <v>0.4175084175084175</v>
+        <v>0.431266846361186</v>
       </c>
       <c r="K17">
-        <v>0.101010101010101</v>
+        <v>0.1051212938005391</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0303030303030303</v>
+        <v>0.02425876010781671</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0707070707070707</v>
+        <v>0.07277628032345014</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1144781144781145</v>
+        <v>0.1051212938005391</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02752293577981652</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1651376146788991</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="I18">
-        <v>0.1376146788990826</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="J18">
-        <v>0.3577981651376147</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="K18">
-        <v>0.1009174311926606</v>
+        <v>0.09448818897637795</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07339449541284404</v>
+        <v>0.07086614173228346</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1376146788990826</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03857280617164899</v>
+        <v>0.04338070306656694</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2140790742526519</v>
+        <v>0.2056843679880329</v>
       </c>
       <c r="I19">
-        <v>0.09257473481195758</v>
+        <v>0.08825729244577413</v>
       </c>
       <c r="J19">
-        <v>0.3317261330761813</v>
+        <v>0.337322363500374</v>
       </c>
       <c r="K19">
-        <v>0.09064609450337512</v>
+        <v>0.09274495138369485</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02025072324011572</v>
+        <v>0.01795063575168287</v>
       </c>
       <c r="N19">
-        <v>0.002892960462873674</v>
+        <v>0.002243829468960359</v>
       </c>
       <c r="O19">
-        <v>0.07232401157184185</v>
+        <v>0.07180254300673149</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1369334619093539</v>
+        <v>0.1406133133881825</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Seattle U_B.xlsx
+++ b/team_specific_matrix/Seattle U_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2119205298013245</v>
+        <v>0.203125</v>
       </c>
       <c r="C2">
-        <v>0.4966887417218543</v>
+        <v>0.51875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009933774834437087</v>
+        <v>0.009375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1821192052980132</v>
+        <v>0.175</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09933774834437085</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0125</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="C3">
-        <v>0.01875</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.025</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.725</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.21875</v>
+        <v>0.2033898305084746</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5227272727272727</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4318181818181818</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06204379562043796</v>
+        <v>0.06143344709897611</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0145985401459854</v>
+        <v>0.0136518771331058</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05109489051094891</v>
+        <v>0.04778156996587031</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2883211678832117</v>
+        <v>0.2866894197952218</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0218978102189781</v>
+        <v>0.02389078498293516</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1423357664233577</v>
+        <v>0.1433447098976109</v>
       </c>
       <c r="R6">
-        <v>0.0583941605839416</v>
+        <v>0.06143344709897611</v>
       </c>
       <c r="S6">
-        <v>0.3613138686131387</v>
+        <v>0.3617747440273038</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1650485436893204</v>
+        <v>0.1697247706422018</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009708737864077669</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05825242718446602</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1407766990291262</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04854368932038835</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.116504854368932</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="R7">
-        <v>0.04368932038834952</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="S7">
-        <v>0.4174757281553398</v>
+        <v>0.4128440366972477</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09070796460176991</v>
+        <v>0.09394572025052192</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01991150442477876</v>
+        <v>0.01878914405010438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05309734513274336</v>
+        <v>0.05219206680584551</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1305309734513274</v>
+        <v>0.1315240083507307</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04424778761061947</v>
+        <v>0.04384133611691023</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1349557522123894</v>
+        <v>0.1377870563674322</v>
       </c>
       <c r="R8">
-        <v>0.06415929203539823</v>
+        <v>0.06263048016701461</v>
       </c>
       <c r="S8">
-        <v>0.4623893805309734</v>
+        <v>0.4592901878914405</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0995260663507109</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02369668246445497</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="E9">
-        <v>0.004739336492890996</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="F9">
-        <v>0.09004739336492891</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1184834123222749</v>
+        <v>0.1125541125541126</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03791469194312796</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1421800947867299</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="R9">
-        <v>0.09004739336492891</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="S9">
-        <v>0.3933649289099526</v>
+        <v>0.4025974025974026</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1258741258741259</v>
+        <v>0.1226645004061738</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02272727272727273</v>
+        <v>0.02274573517465475</v>
       </c>
       <c r="E10">
-        <v>0.0008741258741258741</v>
+        <v>0.0008123476848090983</v>
       </c>
       <c r="F10">
-        <v>0.08916083916083917</v>
+        <v>0.0901705930138099</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1048951048951049</v>
+        <v>0.1031681559707555</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03409090909090909</v>
+        <v>0.03330625507717303</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1923076923076923</v>
+        <v>0.1933387489845654</v>
       </c>
       <c r="R10">
-        <v>0.0472027972027972</v>
+        <v>0.0503655564581641</v>
       </c>
       <c r="S10">
-        <v>0.3828671328671329</v>
+        <v>0.3834281072298944</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1712328767123288</v>
+        <v>0.1629392971246006</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08904109589041095</v>
+        <v>0.08626198083067092</v>
       </c>
       <c r="K11">
-        <v>0.1917808219178082</v>
+        <v>0.1916932907348243</v>
       </c>
       <c r="L11">
-        <v>0.5273972602739726</v>
+        <v>0.5271565495207667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02054794520547945</v>
+        <v>0.03194888178913738</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6778846153846154</v>
+        <v>0.6832579185520362</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1490384615384615</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="K12">
-        <v>0.02884615384615385</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="L12">
-        <v>0.0625</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08173076923076923</v>
+        <v>0.08144796380090498</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G13">
-        <v>0.6938775510204082</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1020408163265306</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1836734693877551</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04705882352941176</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1725490196078431</v>
+        <v>0.1721611721611722</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.06227106227106227</v>
       </c>
       <c r="J15">
-        <v>0.2745098039215687</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="K15">
-        <v>0.07058823529411765</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007843137254901961</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="N15">
-        <v>0.00392156862745098</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="O15">
-        <v>0.05098039215686274</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3137254901960784</v>
+        <v>0.3003663003663004</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03684210526315789</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2052631578947368</v>
+        <v>0.1990291262135922</v>
       </c>
       <c r="I16">
-        <v>0.08947368421052632</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="J16">
-        <v>0.3421052631578947</v>
+        <v>0.3446601941747573</v>
       </c>
       <c r="K16">
-        <v>0.1263157894736842</v>
+        <v>0.1213592233009709</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02105263157894737</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="N16">
-        <v>0.005263157894736842</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O16">
-        <v>0.04210526315789474</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.131578947368421</v>
+        <v>0.1359223300970874</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02425876010781671</v>
+        <v>0.0225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1482479784366577</v>
+        <v>0.155</v>
       </c>
       <c r="I17">
-        <v>0.08894878706199461</v>
+        <v>0.095</v>
       </c>
       <c r="J17">
-        <v>0.431266846361186</v>
+        <v>0.4275</v>
       </c>
       <c r="K17">
-        <v>0.1051212938005391</v>
+        <v>0.1</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02425876010781671</v>
+        <v>0.0225</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07277628032345014</v>
+        <v>0.0725</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1051212938005391</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02362204724409449</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1653543307086614</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="I18">
-        <v>0.1181102362204724</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="J18">
-        <v>0.3858267716535433</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="K18">
-        <v>0.09448818897637795</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01574803149606299</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07086614173228346</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1259842519685039</v>
+        <v>0.1357142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.04338070306656694</v>
+        <v>0.04134548002803083</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2056843679880329</v>
+        <v>0.2032235459004905</v>
       </c>
       <c r="I19">
-        <v>0.08825729244577413</v>
+        <v>0.08969866853538892</v>
       </c>
       <c r="J19">
-        <v>0.337322363500374</v>
+        <v>0.3419761737911703</v>
       </c>
       <c r="K19">
-        <v>0.09274495138369485</v>
+        <v>0.09600560616678346</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01795063575168287</v>
+        <v>0.01751927119831815</v>
       </c>
       <c r="N19">
-        <v>0.002243829468960359</v>
+        <v>0.002102312543798178</v>
       </c>
       <c r="O19">
-        <v>0.07180254300673149</v>
+        <v>0.07077785564120533</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1406133133881825</v>
+        <v>0.1373510861948143</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Seattle U_B.xlsx
+++ b/team_specific_matrix/Seattle U_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.203125</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="C2">
-        <v>0.51875</v>
+        <v>0.5168195718654435</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009375</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.175</v>
+        <v>0.1773700305810398</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09375</v>
+        <v>0.09174311926605505</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01129943502824859</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="C3">
-        <v>0.01694915254237288</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02259887005649718</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7457627118644068</v>
+        <v>0.7458563535911602</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2033898305084746</v>
+        <v>0.2044198895027624</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4222222222222222</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06143344709897611</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0136518771331058</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04778156996587031</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2866894197952218</v>
+        <v>0.2861842105263158</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02389078498293516</v>
+        <v>0.02302631578947368</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1433447098976109</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="R6">
-        <v>0.06143344709897611</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="S6">
-        <v>0.3617747440273038</v>
+        <v>0.3618421052631579</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1697247706422018</v>
+        <v>0.1644444444444444</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009174311926605505</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05963302752293578</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1422018348623853</v>
+        <v>0.1422222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04587155963302753</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1192660550458716</v>
+        <v>0.1244444444444444</v>
       </c>
       <c r="R7">
-        <v>0.04128440366972477</v>
+        <v>0.04</v>
       </c>
       <c r="S7">
-        <v>0.4128440366972477</v>
+        <v>0.4088888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09394572025052192</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01878914405010438</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05219206680584551</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1315240083507307</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04384133611691023</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1377870563674322</v>
+        <v>0.1474747474747475</v>
       </c>
       <c r="R8">
-        <v>0.06263048016701461</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S8">
-        <v>0.4592901878914405</v>
+        <v>0.4525252525252526</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1038961038961039</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02164502164502164</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="E9">
-        <v>0.004329004329004329</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="F9">
-        <v>0.09523809523809523</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1125541125541126</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1341991341991342</v>
+        <v>0.1324786324786325</v>
       </c>
       <c r="R9">
-        <v>0.08658008658008658</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="S9">
-        <v>0.4025974025974026</v>
+        <v>0.405982905982906</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1226645004061738</v>
+        <v>0.1198120595144871</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02274573517465475</v>
+        <v>0.02270947533281127</v>
       </c>
       <c r="E10">
-        <v>0.0008123476848090983</v>
+        <v>0.0007830853563038371</v>
       </c>
       <c r="F10">
-        <v>0.0901705930138099</v>
+        <v>0.0908379013312451</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1031681559707555</v>
+        <v>0.1049334377447142</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03330625507717303</v>
+        <v>0.03288958496476116</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1933387489845654</v>
+        <v>0.1910728269381363</v>
       </c>
       <c r="R10">
-        <v>0.0503655564581641</v>
+        <v>0.05168363351605325</v>
       </c>
       <c r="S10">
-        <v>0.3834281072298944</v>
+        <v>0.3852779953014879</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1629392971246006</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08626198083067092</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="K11">
-        <v>0.1916932907348243</v>
+        <v>0.1918238993710692</v>
       </c>
       <c r="L11">
-        <v>0.5271565495207667</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03194888178913738</v>
+        <v>0.03144654088050314</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6832579185520362</v>
+        <v>0.6875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1447963800904978</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K12">
-        <v>0.02714932126696833</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="L12">
-        <v>0.06334841628959276</v>
+        <v>0.0625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.08144796380090498</v>
+        <v>0.08035714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0196078431372549</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09803921568627451</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1764705882352941</v>
+        <v>0.1636363636363636</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04395604395604396</v>
+        <v>0.04642857142857143</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1721611721611722</v>
+        <v>0.1678571428571428</v>
       </c>
       <c r="I15">
-        <v>0.06227106227106227</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="J15">
-        <v>0.282051282051282</v>
+        <v>0.2821428571428571</v>
       </c>
       <c r="K15">
-        <v>0.0695970695970696</v>
+        <v>0.06785714285714285</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007326007326007326</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="N15">
-        <v>0.003663003663003663</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="O15">
-        <v>0.05860805860805861</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3003663003663004</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03883495145631068</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1990291262135922</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="I16">
-        <v>0.09223300970873786</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3446601941747573</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="K16">
-        <v>0.1213592233009709</v>
+        <v>0.1196172248803828</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02427184466019417</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="N16">
-        <v>0.004854368932038835</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="O16">
-        <v>0.03883495145631068</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1359223300970874</v>
+        <v>0.1339712918660287</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0225</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.155</v>
+        <v>0.1646778042959427</v>
       </c>
       <c r="I17">
-        <v>0.095</v>
+        <v>0.09069212410501193</v>
       </c>
       <c r="J17">
-        <v>0.4275</v>
+        <v>0.4295942720763723</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0225</v>
+        <v>0.02386634844868735</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0725</v>
+        <v>0.06921241050119331</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.105</v>
+        <v>0.1026252983293556</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02142857142857143</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1571428571428571</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="I18">
-        <v>0.1142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18">
-        <v>0.3928571428571428</v>
+        <v>0.3819444444444444</v>
       </c>
       <c r="K18">
-        <v>0.09285714285714286</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01428571428571429</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1357142857142857</v>
+        <v>0.1319444444444444</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.04134548002803083</v>
+        <v>0.04016337644656229</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2032235459004905</v>
+        <v>0.20285908781484</v>
       </c>
       <c r="I19">
-        <v>0.08969866853538892</v>
+        <v>0.0878148400272294</v>
       </c>
       <c r="J19">
-        <v>0.3419761737911703</v>
+        <v>0.3451327433628318</v>
       </c>
       <c r="K19">
-        <v>0.09600560616678346</v>
+        <v>0.09530292716133425</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01751927119831815</v>
+        <v>0.01837985023825732</v>
       </c>
       <c r="N19">
-        <v>0.002102312543798178</v>
+        <v>0.002042205582028591</v>
       </c>
       <c r="O19">
-        <v>0.07077785564120533</v>
+        <v>0.07147719537100068</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1373510861948143</v>
+        <v>0.1368277739959156</v>
       </c>
     </row>
   </sheetData>
